--- a/admin/Timesheets/Caroline Chang/Week 28 Timesheet.xlsx
+++ b/admin/Timesheets/Caroline Chang/Week 28 Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\CSCI_Classes\CSCI4308\capstone_proj\admin\Timesheets\Caroline Chang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0529BE-8FBD-4DD9-9A70-26154ABFC3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC81CC11-AE2F-4F19-9809-CD52C37A8AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A4:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,25 +462,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>45019</v>
+        <v>45033</v>
       </c>
       <c r="C5" s="3">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="D5" s="3">
-        <v>45021</v>
+        <v>45035</v>
       </c>
       <c r="E5" s="3">
-        <v>45022</v>
+        <v>45036</v>
       </c>
       <c r="F5" s="3">
-        <v>45023</v>
+        <v>45037</v>
       </c>
       <c r="G5" s="3">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H5" s="3">
-        <v>45025</v>
+        <v>45039</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>8</v>
@@ -519,12 +519,7 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -557,14 +552,14 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
